--- a/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>AT</t>
   </si>
@@ -112,13 +113,46 @@
   </si>
   <si>
     <t>100th Anniversary - Austria</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>euro-coins</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>skopil</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Description (single table, table set, mintage, prices):</t>
+  </si>
+  <si>
+    <t>Low convenience single table with mintages</t>
+  </si>
+  <si>
+    <t>en.ucoin</t>
+  </si>
+  <si>
+    <t>Low convenience set of tables with mintages</t>
+  </si>
+  <si>
+    <t>Low convenience set of tables with photos</t>
+  </si>
+  <si>
+    <t>Low convenience single table with varieties and mintages and photos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +197,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -285,11 +327,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -340,12 +383,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -353,6 +413,15 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,6 +434,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1049,4 +1134,89 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -371,6 +371,22 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,22 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -407,14 +407,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -422,6 +414,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,9 +444,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -717,37 +717,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
@@ -756,9 +756,9 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2005</v>
       </c>
@@ -793,7 +793,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2006</v>
       </c>
@@ -817,7 +817,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2007</v>
       </c>
@@ -838,7 +838,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2008</v>
       </c>
@@ -862,7 +862,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2009</v>
       </c>
@@ -882,7 +882,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2010</v>
       </c>
@@ -906,7 +906,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2011</v>
       </c>
@@ -931,7 +931,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2012</v>
       </c>
@@ -951,7 +951,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2013</v>
       </c>
@@ -975,7 +975,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2014</v>
       </c>
@@ -999,7 +999,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2015</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2016</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2017</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2019</v>
       </c>
@@ -1114,7 +1114,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1140,69 +1140,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>AT</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Low convenience single table with varieties and mintages and photos</t>
+  </si>
+  <si>
+    <t>Rev: old map of Europe</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -397,6 +403,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,6 +416,14 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -414,14 +431,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,9 +453,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -721,7 +730,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -780,7 +789,9 @@
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11">
         <v>6880000</v>
@@ -824,7 +835,9 @@
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11">
         <v>8905000</v>
@@ -869,7 +882,9 @@
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11">
         <v>4910000</v>
@@ -938,7 +953,9 @@
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11">
         <v>11300000</v>
@@ -1006,7 +1023,9 @@
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11">
         <v>2500000</v>
@@ -1026,7 +1045,9 @@
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11">
         <v>16000000</v>
@@ -1070,7 +1091,9 @@
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11">
         <v>18100100</v>
@@ -1114,7 +1137,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>AT</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -393,6 +402,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,8 +417,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -416,14 +428,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -431,6 +435,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,16 +458,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -726,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -747,16 +759,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
@@ -766,8 +778,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -789,7 +801,7 @@
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="10"/>
@@ -835,7 +847,7 @@
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="10"/>
@@ -882,7 +894,7 @@
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="10"/>
@@ -953,7 +965,7 @@
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="10"/>
@@ -1023,7 +1035,7 @@
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="10"/>
@@ -1045,7 +1057,7 @@
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="10"/>
@@ -1091,7 +1103,7 @@
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="10"/>
@@ -1137,7 +1149,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1161,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1229,17 +1241,41 @@
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Commemorative[2005-present]#circulation_quality.xlsx
@@ -405,6 +405,9 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,9 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -759,16 +759,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
@@ -778,8 +778,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1248,7 +1248,7 @@
       <c r="B6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1269,8 +1269,8 @@
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
